--- a/data/output/FV2404_FV2310/INVOIC/31005.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31005.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="330">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="330">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1103,6 +1103,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U187" totalsRowShown="0">
+  <autoFilter ref="A1:U187"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1392,7 +1422,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9954,5 +9987,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/INVOIC/31005.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31005.xlsx
@@ -2083,7 +2083,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3399,7 +3399,7 @@
         <v>305</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3587,7 +3587,7 @@
         <v>306</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2"/>
@@ -3963,7 +3963,7 @@
         <v>307</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="2"/>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4293,7 +4293,7 @@
         <v>308</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6673,22 +6673,22 @@
       <c r="V96" s="5"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
         <v>290</v>
       </c>
       <c r="K97" s="6" t="s">
@@ -6697,19 +6697,19 @@
       <c r="L97" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5" t="s">
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2" t="s">
         <v>290</v>
       </c>
       <c r="V97" s="6" t="s">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8513,7 +8513,7 @@
         <v>319</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N161" s="2"/>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N185" s="2"/>
